--- a/sits/msit_klingon.xlsx
+++ b/sits/msit_klingon.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="980">
   <si>
     <t>Designation</t>
   </si>
@@ -651,7 +651,7 @@
     <t>Stasis Field Generator Ship (312.0)</t>
   </si>
   <si>
-    <t>D7V (DVS)</t>
+    <t>D7V</t>
   </si>
   <si>
     <t>7-8(6)/3-4(3)</t>
@@ -1544,7 +1544,7 @@
     <t>TUGS</t>
   </si>
   <si>
-    <t>TGB (T6)</t>
+    <t>TGB</t>
   </si>
   <si>
     <t>4-8/2-4</t>
@@ -1565,7 +1565,7 @@
     <t>Tug</t>
   </si>
   <si>
-    <t>TGA (T7)</t>
+    <t>TGA</t>
   </si>
   <si>
     <t>Y140</t>
@@ -1620,6 +1620,9 @@
   </si>
   <si>
     <t>0/None</t>
+  </si>
+  <si>
+    <t>F&amp;E (subsumed)</t>
   </si>
   <si>
     <t>Pod</t>
@@ -2680,7 +2683,7 @@
     <t>Commando Ship §</t>
   </si>
   <si>
-    <t>FV (F5V)</t>
+    <t>F5V</t>
   </si>
   <si>
     <t>4-5(4)/2-3(2)</t>
@@ -4475,12 +4478,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
@@ -4498,6 +4495,12 @@
       <name val="MS Gothic"/>
       <charset val="1"/>
       <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -4530,30 +4533,30 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4583,7 +4586,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -4592,11 +4595,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4604,11 +4607,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4616,11 +4619,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4628,7 +4627,7 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4636,23 +4635,19 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4660,7 +4655,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4676,7 +4671,7 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4684,27 +4679,27 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="169" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="169" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4731,8 +4726,8 @@
   </sheetPr>
   <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A206" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A208" activeCellId="0" pane="topLeft" sqref="208:209"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A69" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A82" activeCellId="0" pane="topLeft" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4823,13 +4818,13 @@
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="8" t="n">
         <v>10.8</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -4843,7 +4838,7 @@
       <c r="B4" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -4864,7 +4859,7 @@
       <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="8" t="n">
         <v>10.8</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -4893,13 +4888,13 @@
       <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="8" t="n">
         <v>10.8</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -4910,16 +4905,16 @@
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>106</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -4934,7 +4929,7 @@
       <c r="I6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="13" t="n">
         <v>7.8</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -4954,7 +4949,7 @@
       <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -4969,7 +4964,7 @@
       <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="13" t="n">
         <v>9</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -5004,7 +4999,7 @@
       <c r="I8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="8" t="n">
         <v>10.8</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -5039,7 +5034,7 @@
       <c r="I9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="8" t="n">
         <v>12</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -5068,13 +5063,13 @@
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="8" t="n">
         <v>10.8</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -5085,7 +5080,7 @@
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
@@ -5095,11 +5090,11 @@
       <c r="E11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -5116,15 +5111,15 @@
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
@@ -5134,7 +5129,7 @@
       <c r="I12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="8" t="n">
         <v>9</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -5160,16 +5155,16 @@
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -5184,7 +5179,7 @@
       <c r="I14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="13" t="n">
         <v>4.8</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -5195,16 +5190,16 @@
       <c r="A15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -5219,7 +5214,7 @@
       <c r="I15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -5230,7 +5225,7 @@
       <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="10" t="n">
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -5239,7 +5234,7 @@
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -5254,7 +5249,7 @@
       <c r="I16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="13" t="n">
         <v>4.8</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -5265,7 +5260,7 @@
       <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -5300,7 +5295,7 @@
       <c r="A18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="10" t="n">
         <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -5309,7 +5304,7 @@
       <c r="D18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -5324,7 +5319,7 @@
       <c r="I18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="13" t="n">
         <v>4.8</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -5344,7 +5339,7 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -5359,7 +5354,7 @@
       <c r="I19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="13" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -5373,7 +5368,7 @@
       <c r="B20" s="5" t="n">
         <v>143</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -5388,13 +5383,13 @@
       <c r="G20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>115</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="8" t="n">
         <v>3.9</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -5405,16 +5400,16 @@
       <c r="A21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="10" t="n">
         <v>103</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -5429,7 +5424,7 @@
       <c r="I21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="13" t="n">
         <v>5.4</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -5458,13 +5453,13 @@
       <c r="G22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>127</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="8" t="n">
         <v>4.8</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -5475,10 +5470,10 @@
       <c r="A23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -5513,7 +5508,7 @@
       <c r="B24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -5528,13 +5523,13 @@
       <c r="G24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="J24" s="14" t="n">
         <v>5.4</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -5542,19 +5537,19 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
@@ -5595,16 +5590,16 @@
       <c r="A27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>72</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -5619,7 +5614,7 @@
       <c r="I27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="14" t="n">
+      <c r="J27" s="13" t="n">
         <v>3</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -5654,7 +5649,7 @@
       <c r="I28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="8" t="n">
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -5683,13 +5678,13 @@
       <c r="G29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>158</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="8" t="n">
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -5700,7 +5695,7 @@
       <c r="A30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="10" t="n">
         <v>73</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -5709,7 +5704,7 @@
       <c r="D30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="12" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
@@ -5724,7 +5719,7 @@
       <c r="I30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="14" t="n">
+      <c r="J30" s="13" t="n">
         <v>3</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -5750,16 +5745,16 @@
       <c r="A32" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -5774,7 +5769,7 @@
       <c r="I32" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J32" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -5788,7 +5783,7 @@
       <c r="B33" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>173</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -5809,7 +5804,7 @@
       <c r="I33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J33" s="9" t="n">
+      <c r="J33" s="8" t="n">
         <v>2.4</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -5820,7 +5815,7 @@
       <c r="A34" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="10" t="n">
         <v>45</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -5829,7 +5824,7 @@
       <c r="D34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -5844,7 +5839,7 @@
       <c r="I34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J34" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -5855,16 +5850,16 @@
       <c r="A35" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="13" t="n">
+      <c r="E35" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -5879,7 +5874,7 @@
       <c r="I35" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J35" s="13" t="n">
         <v>2.7</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -5890,16 +5885,16 @@
       <c r="A36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="10" t="n">
         <v>92</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="13" t="n">
+      <c r="E36" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -5914,7 +5909,7 @@
       <c r="I36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J36" s="14" t="n">
+      <c r="J36" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -5925,7 +5920,7 @@
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="13" t="n">
+      <c r="B37" s="12" t="n">
         <v>8</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5934,7 +5929,7 @@
       <c r="D37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="13" t="n">
+      <c r="E37" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -5949,7 +5944,7 @@
       <c r="I37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="14" t="n">
+      <c r="J37" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -5960,7 +5955,7 @@
       <c r="A38" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="10" t="n">
         <v>44</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -5969,7 +5964,7 @@
       <c r="D38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -5984,7 +5979,7 @@
       <c r="I38" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J38" s="14" t="n">
+      <c r="J38" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -5995,7 +5990,7 @@
       <c r="A39" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -6030,7 +6025,7 @@
       <c r="A40" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -6065,16 +6060,16 @@
       <c r="A41" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>211</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="13" t="n">
+      <c r="E41" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -6089,7 +6084,7 @@
       <c r="I41" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J41" s="14" t="n">
+      <c r="J41" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -6103,7 +6098,7 @@
       <c r="B42" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -6118,13 +6113,13 @@
       <c r="G42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>217</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J42" s="9" t="n">
+      <c r="J42" s="8" t="n">
         <v>2.7</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -6138,7 +6133,7 @@
       <c r="B43" s="5" t="n">
         <v>156</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>221</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -6153,13 +6148,13 @@
       <c r="G43" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="7" t="s">
         <v>222</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="8" t="n">
         <v>2.7</v>
       </c>
       <c r="K43" s="7" t="s">
@@ -6173,7 +6168,7 @@
       <c r="B44" s="5" t="n">
         <v>201</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -6188,13 +6183,13 @@
       <c r="G44" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>227</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J44" s="9" t="n">
+      <c r="J44" s="8" t="n">
         <v>3.9</v>
       </c>
       <c r="K44" s="4" t="s">
@@ -6220,16 +6215,16 @@
       <c r="A46" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="13" t="n">
+      <c r="B46" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -6244,7 +6239,7 @@
       <c r="I46" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J46" s="14" t="n">
+      <c r="J46" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -6255,7 +6250,7 @@
       <c r="A47" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="10" t="n">
         <v>48</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -6264,7 +6259,7 @@
       <c r="D47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="13" t="n">
+      <c r="E47" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -6279,7 +6274,7 @@
       <c r="I47" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J47" s="14" t="n">
+      <c r="J47" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -6290,7 +6285,7 @@
       <c r="A48" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B48" s="11" t="n">
+      <c r="B48" s="10" t="n">
         <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -6299,7 +6294,7 @@
       <c r="D48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -6314,7 +6309,7 @@
       <c r="I48" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J48" s="14" t="n">
+      <c r="J48" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K48" s="7" t="s">
@@ -6328,7 +6323,7 @@
       <c r="B49" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>246</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6349,7 +6344,7 @@
       <c r="I49" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J49" s="8" t="n">
         <v>2.4</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -6363,7 +6358,7 @@
       <c r="B50" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -6378,13 +6373,13 @@
       <c r="G50" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="7" t="s">
         <v>254</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="8" t="n">
         <v>2.4</v>
       </c>
       <c r="K50" s="4" t="s">
@@ -6398,13 +6393,13 @@
       <c r="B51" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>259</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="13" t="n">
+      <c r="E51" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -6419,7 +6414,7 @@
       <c r="I51" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J51" s="19" t="n">
+      <c r="J51" s="17" t="n">
         <v>2.55</v>
       </c>
       <c r="K51" s="7" t="s">
@@ -6430,16 +6425,16 @@
       <c r="A52" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B52" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>266</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="13" t="n">
+      <c r="E52" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -6454,7 +6449,7 @@
       <c r="I52" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="J52" s="14" t="n">
+      <c r="J52" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K52" s="7" t="s">
@@ -6483,13 +6478,13 @@
       <c r="G53" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>274</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="8" t="n">
         <v>2.4</v>
       </c>
       <c r="K53" s="4" t="s">
@@ -6500,7 +6495,7 @@
       <c r="A54" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -6570,16 +6565,16 @@
       <c r="A56" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B56" s="11" t="n">
+      <c r="B56" s="10" t="n">
         <v>114</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>279</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="13" t="n">
+      <c r="E56" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -6594,7 +6589,7 @@
       <c r="I56" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="J56" s="14" t="n">
+      <c r="J56" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K56" s="7" t="s">
@@ -6605,16 +6600,16 @@
       <c r="A57" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="11" t="n">
+      <c r="B57" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>284</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="13" t="n">
+      <c r="E57" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F57" s="7" t="s">
@@ -6629,7 +6624,7 @@
       <c r="I57" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="J57" s="14" t="n">
+      <c r="J57" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K57" s="7" t="s">
@@ -6658,13 +6653,13 @@
       <c r="G58" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="7" t="s">
         <v>291</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J58" s="9" t="n">
+      <c r="J58" s="8" t="n">
         <v>2.4</v>
       </c>
       <c r="K58" s="7" t="s">
@@ -6675,16 +6670,16 @@
       <c r="A59" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B59" s="11" t="n">
+      <c r="B59" s="10" t="n">
         <v>76</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>295</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="13" t="n">
+      <c r="E59" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F59" s="7" t="s">
@@ -6699,7 +6694,7 @@
       <c r="I59" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J59" s="14" t="n">
+      <c r="J59" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K59" s="7" t="s">
@@ -6710,16 +6705,16 @@
       <c r="A60" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="11" t="n">
+      <c r="B60" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="13" t="n">
+      <c r="E60" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F60" s="7" t="s">
@@ -6734,7 +6729,7 @@
       <c r="I60" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J60" s="14" t="n">
+      <c r="J60" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K60" s="7" t="s">
@@ -6763,7 +6758,7 @@
       <c r="B62" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>304</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -6778,13 +6773,13 @@
       <c r="G62" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="J62" s="9" t="n">
+      <c r="J62" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -6813,13 +6808,13 @@
       <c r="G63" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="7" t="s">
         <v>310</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J63" s="9" t="n">
+      <c r="J63" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K63" s="4" t="s">
@@ -6833,7 +6828,7 @@
       <c r="B64" s="5" t="n">
         <v>142</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>313</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -6848,13 +6843,13 @@
       <c r="G64" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="7" t="s">
         <v>314</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J64" s="9" t="n">
+      <c r="J64" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K64" s="4" t="s">
@@ -6883,13 +6878,13 @@
       <c r="G65" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="7" t="s">
         <v>319</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J65" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K65" s="7" t="s">
@@ -6918,13 +6913,13 @@
       <c r="G66" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="7" t="s">
         <v>324</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J66" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K66" s="7" t="s">
@@ -6938,7 +6933,7 @@
       <c r="B67" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -6959,7 +6954,7 @@
       <c r="I67" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J67" s="9" t="n">
+      <c r="J67" s="8" t="n">
         <v>2.1</v>
       </c>
       <c r="K67" s="4" t="s">
@@ -6973,7 +6968,7 @@
       <c r="B68" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>331</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -6988,16 +6983,16 @@
       <c r="G68" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="7" t="s">
         <v>332</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J68" s="8" t="n">
         <v>1.8</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="7" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7008,7 +7003,7 @@
       <c r="B69" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="19" t="s">
         <v>266</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -7023,13 +7018,13 @@
       <c r="G69" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="7" t="s">
         <v>336</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J69" s="9" t="n">
+      <c r="J69" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K69" s="4" t="s">
@@ -7058,13 +7053,13 @@
       <c r="G70" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="7" t="s">
         <v>341</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="J70" s="9" t="n">
+      <c r="J70" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K70" s="4" t="s">
@@ -7075,16 +7070,16 @@
       <c r="A71" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B71" s="11" t="n">
+      <c r="B71" s="10" t="n">
         <v>89</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="13" t="n">
+      <c r="E71" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F71" s="7" t="s">
@@ -7099,7 +7094,7 @@
       <c r="I71" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J71" s="14" t="n">
+      <c r="J71" s="13" t="n">
         <v>1.8</v>
       </c>
       <c r="K71" s="7" t="s">
@@ -7128,13 +7123,13 @@
       <c r="G72" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="J72" s="9" t="n">
+      <c r="J72" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K72" s="7" t="s">
@@ -7148,7 +7143,7 @@
       <c r="B73" s="5" t="n">
         <v>127</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -7163,13 +7158,13 @@
       <c r="G73" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="7" t="s">
         <v>355</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="J73" s="9" t="n">
+      <c r="J73" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -7183,7 +7178,7 @@
       <c r="B74" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="19" t="s">
         <v>359</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -7198,13 +7193,13 @@
       <c r="G74" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="7" t="s">
         <v>360</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J74" s="9" t="n">
+      <c r="J74" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K74" s="4" t="s">
@@ -7250,31 +7245,31 @@
       <c r="A76" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B76" s="23" t="n">
+      <c r="B76" s="21" t="n">
         <v>119</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="F76" s="24" t="s">
+      <c r="F76" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G76" s="24" t="s">
+      <c r="G76" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="I76" s="24" t="s">
+      <c r="I76" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="J76" s="26" t="n">
+      <c r="J76" s="24" t="n">
         <v>1.8</v>
       </c>
       <c r="K76" s="4" t="s">
@@ -7288,7 +7283,7 @@
       <c r="B77" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="19" t="s">
         <v>367</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -7303,13 +7298,13 @@
       <c r="G77" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="7" t="s">
         <v>368</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J77" s="9" t="n">
+      <c r="J77" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K77" s="4" t="s">
@@ -7323,7 +7318,7 @@
       <c r="B78" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="19" t="s">
         <v>372</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -7338,13 +7333,13 @@
       <c r="G78" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="7" t="s">
         <v>373</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="J78" s="9" t="n">
+      <c r="J78" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K78" s="7" t="s">
@@ -7358,7 +7353,7 @@
       <c r="B79" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="16" t="s">
         <v>173</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -7373,13 +7368,13 @@
       <c r="G79" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="7" t="s">
         <v>378</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="J79" s="8" t="n">
         <v>1.8</v>
       </c>
       <c r="K79" s="7" t="s">
@@ -7405,7 +7400,7 @@
       <c r="A81" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -7414,7 +7409,7 @@
       <c r="D81" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="13" t="n">
+      <c r="E81" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F81" s="7" t="s">
@@ -7429,7 +7424,7 @@
       <c r="I81" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J81" s="14" t="n">
+      <c r="J81" s="13" t="n">
         <v>1.8</v>
       </c>
       <c r="K81" s="7" t="s">
@@ -7440,16 +7435,16 @@
       <c r="A82" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B82" s="13" t="n">
+      <c r="B82" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="13" t="n">
+      <c r="E82" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F82" s="7" t="s">
@@ -7464,7 +7459,7 @@
       <c r="I82" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J82" s="14" t="n">
+      <c r="J82" s="13" t="n">
         <v>2.4</v>
       </c>
       <c r="K82" s="7" t="s">
@@ -7499,7 +7494,7 @@
       <c r="I83" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="J83" s="9" t="n">
+      <c r="J83" s="8" t="n">
         <v>3.4</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -7510,7 +7505,7 @@
       <c r="A84" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -7545,7 +7540,7 @@
       <c r="A85" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -7554,7 +7549,7 @@
       <c r="D85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="13" t="n">
+      <c r="E85" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -7569,7 +7564,7 @@
       <c r="I85" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J85" s="14" t="n">
+      <c r="J85" s="13" t="n">
         <v>3.4</v>
       </c>
       <c r="K85" s="7" t="s">
@@ -7595,114 +7590,114 @@
       <c r="A87" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B87" s="8"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
         <v>405</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="13" t="n">
+        <v>406</v>
+      </c>
+      <c r="E87" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G87" s="12" t="s">
-        <v>406</v>
+      <c r="G87" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J87" s="13" t="n">
+        <v>408</v>
+      </c>
+      <c r="J87" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B88" s="11" t="n">
+        <v>410</v>
+      </c>
+      <c r="B88" s="10" t="n">
         <v>13</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="11" t="n">
+      <c r="E88" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G88" s="12" t="s">
-        <v>406</v>
+      <c r="G88" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J88" s="14" t="n">
+        <v>412</v>
+      </c>
+      <c r="J88" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B89" s="11" t="n">
+        <v>414</v>
+      </c>
+      <c r="B89" s="10" t="n">
         <v>14</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E89" s="10" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>406</v>
+        <v>416</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="J89" s="14" t="n">
+        <v>417</v>
+      </c>
+      <c r="J89" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="90">
       <c r="A90" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B90" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>419</v>
+      <c r="C90" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>29</v>
@@ -7711,29 +7706,29 @@
         <v>0</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>406</v>
+        <v>421</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J90" s="9" t="n">
+        <v>422</v>
+      </c>
+      <c r="J90" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B91" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -7742,33 +7737,33 @@
       <c r="D91" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="13" t="n">
+      <c r="E91" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>267</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="J91" s="14" t="n">
+        <v>427</v>
+      </c>
+      <c r="J91" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B92" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -7777,180 +7772,180 @@
       <c r="D92" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="13" t="n">
+      <c r="E92" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>267</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="J92" s="14" t="n">
+        <v>427</v>
+      </c>
+      <c r="J92" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B93" s="11" t="n">
+        <v>429</v>
+      </c>
+      <c r="B93" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="11" t="n">
+      <c r="C93" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="10" t="n">
         <v>1</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>406</v>
+        <v>431</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="J93" s="14" t="n">
+        <v>432</v>
+      </c>
+      <c r="J93" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B94" s="11" t="n">
+        <v>434</v>
+      </c>
+      <c r="B94" s="10" t="n">
         <v>159</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="11" t="n">
+      <c r="E94" s="10" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G94" s="12" t="s">
-        <v>406</v>
+      <c r="G94" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="J94" s="14" t="n">
+        <v>437</v>
+      </c>
+      <c r="J94" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B95" s="11" t="n">
+        <v>439</v>
+      </c>
+      <c r="B95" s="10" t="n">
         <v>67</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="11" t="n">
+        <v>440</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="10" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G95" s="12" t="s">
-        <v>406</v>
+      <c r="G95" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="J95" s="14" t="n">
+        <v>441</v>
+      </c>
+      <c r="J95" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B96" s="11" t="n">
+        <v>443</v>
+      </c>
+      <c r="B96" s="10" t="n">
         <v>160</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="11" t="n">
+      <c r="E96" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>406</v>
+        <v>445</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="J96" s="14" t="n">
+        <v>446</v>
+      </c>
+      <c r="J96" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="97">
       <c r="A97" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B97" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>448</v>
+      <c r="C97" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E97" s="5" t="n">
         <v>0</v>
@@ -7958,66 +7953,66 @@
       <c r="F97" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>406</v>
+      <c r="G97" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J97" s="9" t="n">
+        <v>450</v>
+      </c>
+      <c r="J97" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B98" s="11" t="n">
+        <v>452</v>
+      </c>
+      <c r="B98" s="10" t="n">
         <v>161</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="11" t="n">
+      <c r="E98" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G98" s="12" t="s">
-        <v>406</v>
+      <c r="G98" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="J98" s="14" t="n">
+        <v>454</v>
+      </c>
+      <c r="J98" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="99">
       <c r="A99" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B99" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>456</v>
+      <c r="C99" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>35</v>
@@ -8028,25 +8023,25 @@
       <c r="F99" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>406</v>
+      <c r="G99" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J99" s="9" t="n">
+        <v>458</v>
+      </c>
+      <c r="J99" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="100">
       <c r="A100" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -8061,72 +8056,72 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B101" s="11" t="n">
+        <v>461</v>
+      </c>
+      <c r="B101" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>461</v>
+      <c r="C101" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="13" t="n">
+      <c r="E101" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>147</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="J101" s="14" t="n">
+        <v>464</v>
+      </c>
+      <c r="J101" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B102" s="27" t="n">
+        <v>466</v>
+      </c>
+      <c r="B102" s="25" t="n">
         <v>61</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>466</v>
+      <c r="C102" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="13" t="n">
+      <c r="E102" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="J102" s="14" t="n">
+        <v>468</v>
+      </c>
+      <c r="J102" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="103">
@@ -8166,13 +8161,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="104">
       <c r="A104" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B104" s="5" t="n">
         <v>53</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>29</v>
@@ -8181,158 +8176,158 @@
         <v>6</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J104" s="9" t="n">
+        <v>474</v>
+      </c>
+      <c r="J104" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B105" s="11" t="n">
+        <v>476</v>
+      </c>
+      <c r="B105" s="10" t="n">
         <v>54</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E105" s="13" t="n">
+      <c r="E105" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="J105" s="14" t="n">
+        <v>474</v>
+      </c>
+      <c r="J105" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B106" s="11" t="n">
+        <v>479</v>
+      </c>
+      <c r="B106" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>479</v>
+      <c r="C106" s="16" t="s">
+        <v>480</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="13" t="n">
+      <c r="E106" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="J106" s="14" t="n">
+        <v>483</v>
+      </c>
+      <c r="J106" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B107" s="11" t="n">
+        <v>485</v>
+      </c>
+      <c r="B107" s="10" t="n">
         <v>50</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E107" s="13" t="n">
+      <c r="E107" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="J107" s="14" t="n">
+        <v>487</v>
+      </c>
+      <c r="J107" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B108" s="11" t="n">
+        <v>489</v>
+      </c>
+      <c r="B108" s="10" t="n">
         <v>62</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="13" t="n">
+      <c r="E108" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="J108" s="14" t="n">
+        <v>492</v>
+      </c>
+      <c r="J108" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K108" s="7" t="s">
@@ -8341,13 +8336,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="109">
       <c r="A109" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B109" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>14</v>
@@ -8356,7 +8351,7 @@
         <v>6</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>98</v>
@@ -8376,33 +8371,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B110" s="11" t="n">
+        <v>495</v>
+      </c>
+      <c r="B110" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="C110" s="20" t="s">
-        <v>495</v>
+      <c r="C110" s="18" t="s">
+        <v>496</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="13" t="n">
+      <c r="E110" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="J110" s="14" t="n">
+        <v>487</v>
+      </c>
+      <c r="J110" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K110" s="7" t="s">
@@ -8411,25 +8406,25 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B111" s="11" t="n">
+        <v>498</v>
+      </c>
+      <c r="B111" s="10" t="n">
         <v>24</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="13" t="n">
+      <c r="E111" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>202</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>345</v>
@@ -8437,7 +8432,7 @@
       <c r="I111" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J111" s="14" t="n">
+      <c r="J111" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K111" s="7" t="s">
@@ -8446,33 +8441,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B112" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="B112" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>500</v>
+      <c r="C112" s="11" t="s">
+        <v>501</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E112" s="13" t="n">
+      <c r="E112" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>202</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="J112" s="14" t="n">
+        <v>504</v>
+      </c>
+      <c r="J112" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K112" s="7" t="s">
@@ -8481,48 +8476,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B113" s="11" t="n">
+        <v>505</v>
+      </c>
+      <c r="B113" s="10" t="n">
         <v>37</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="13" t="n">
+      <c r="E113" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>398</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="J113" s="14" t="n">
+        <v>483</v>
+      </c>
+      <c r="J113" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="114">
       <c r="A114" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B114" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>507</v>
+      <c r="C114" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>22</v>
@@ -8534,30 +8529,30 @@
         <v>290</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>508</v>
+        <v>502</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="J114" s="9" t="n">
+        <v>510</v>
+      </c>
+      <c r="J114" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="115">
       <c r="A115" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B115" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="C115" s="21" t="s">
-        <v>512</v>
+      <c r="C115" s="19" t="s">
+        <v>513</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>22</v>
@@ -8569,100 +8564,100 @@
         <v>108</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>513</v>
+        <v>502</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>514</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="J115" s="9" t="n">
+        <v>515</v>
+      </c>
+      <c r="J115" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="116">
       <c r="A116" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B116" s="11" t="n">
+        <v>517</v>
+      </c>
+      <c r="B116" s="10" t="n">
         <v>62</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="13" t="n">
+      <c r="E116" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="J116" s="14" t="n">
+        <v>520</v>
+      </c>
+      <c r="J116" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="117">
       <c r="A117" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B117" s="11" t="n">
+        <v>522</v>
+      </c>
+      <c r="B117" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>522</v>
+      <c r="C117" s="16" t="s">
+        <v>523</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="13" t="n">
+      <c r="E117" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="J117" s="14" t="n">
+        <v>525</v>
+      </c>
+      <c r="J117" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="118">
       <c r="A118" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B118" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>527</v>
+      <c r="C118" s="16" t="s">
+        <v>528</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>35</v>
@@ -8671,62 +8666,62 @@
         <v>8</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="J118" s="9" t="n">
+        <v>531</v>
+      </c>
+      <c r="J118" s="8" t="n">
         <v>3</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="119">
       <c r="A119" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B119" s="11" t="n">
+        <v>533</v>
+      </c>
+      <c r="B119" s="10" t="n">
         <v>205</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="13" t="n">
+      <c r="E119" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="J119" s="14" t="n">
+        <v>525</v>
+      </c>
+      <c r="J119" s="13" t="n">
         <v>3</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="120">
       <c r="A120" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -8741,13 +8736,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="121">
       <c r="A121" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B121" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>461</v>
+      <c r="C121" s="9" t="s">
+        <v>462</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>113</v>
@@ -8759,24 +8754,24 @@
         <v>91</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="I121" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="J121" s="16" t="n">
+      <c r="I121" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J121" s="14" t="n">
         <v>1.25</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="122">
       <c r="A122" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -8791,13 +8786,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="123">
       <c r="A123" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B123" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>543</v>
+      <c r="C123" s="9" t="s">
+        <v>544</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>35</v>
@@ -8809,30 +8804,30 @@
         <v>108</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H123" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="H123" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="J123" s="9" t="n">
+      <c r="I123" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="J123" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="124">
       <c r="A124" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>461</v>
+        <v>550</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>462</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>113</v>
@@ -8841,33 +8836,33 @@
         <v>5</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="I124" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H124" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="J124" s="9" t="n">
+      <c r="I124" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="J124" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="125">
       <c r="A125" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C125" s="21" t="s">
         <v>555</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>556</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>113</v>
@@ -8876,33 +8871,33 @@
         <v>5</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="I125" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H125" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="J125" s="9" t="n">
+      <c r="I125" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="J125" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="126">
       <c r="A126" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>113</v>
@@ -8911,33 +8906,33 @@
         <v>4</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="J126" s="9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="J126" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="127">
       <c r="A127" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C127" s="21" t="s">
         <v>566</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>567</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>113</v>
@@ -8946,27 +8941,27 @@
         <v>5</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="I127" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H127" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="J127" s="9" t="n">
+      <c r="I127" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="J127" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="128">
       <c r="A128" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -8981,13 +8976,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="129">
       <c r="A129" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B129" s="5" t="n">
         <v>95</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>35</v>
@@ -8999,19 +8994,19 @@
         <v>120</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="H129" s="8" t="s">
         <v>574</v>
       </c>
+      <c r="H129" s="7" t="s">
+        <v>575</v>
+      </c>
       <c r="I129" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="J129" s="9" t="n">
+        <v>576</v>
+      </c>
+      <c r="J129" s="8" t="n">
         <v>1.5</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="130">
@@ -9051,77 +9046,77 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="131">
       <c r="A131" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="B131" s="11" t="n">
+        <v>578</v>
+      </c>
+      <c r="B131" s="10" t="n">
         <v>95</v>
       </c>
-      <c r="C131" s="18" t="s">
-        <v>578</v>
+      <c r="C131" s="16" t="s">
+        <v>579</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="13" t="n">
+      <c r="E131" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="J131" s="14" t="n">
+        <v>581</v>
+      </c>
+      <c r="J131" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="132">
       <c r="A132" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B132" s="11" t="n">
+        <v>583</v>
+      </c>
+      <c r="B132" s="10" t="n">
         <v>95</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E132" s="13" t="n">
+      <c r="E132" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="J132" s="14" t="n">
+        <v>581</v>
+      </c>
+      <c r="J132" s="13" t="n">
         <v>1.5</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="133">
       <c r="A133" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -9136,48 +9131,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="134">
       <c r="A134" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="B134" s="11" t="n">
+        <v>586</v>
+      </c>
+      <c r="B134" s="10" t="n">
         <v>97</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>586</v>
+      <c r="C134" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="13" t="n">
+      <c r="E134" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="J134" s="14" t="n">
+        <v>590</v>
+      </c>
+      <c r="J134" s="13" t="n">
         <v>1.2</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="135">
       <c r="A135" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B135" s="5" t="n">
         <v>93</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>35</v>
@@ -9189,30 +9184,30 @@
         <v>108</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>593</v>
+        <v>588</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>594</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="J135" s="9" t="n">
+        <v>595</v>
+      </c>
+      <c r="J135" s="8" t="n">
         <v>1.2</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="136">
       <c r="A136" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B136" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="C136" s="21" t="s">
-        <v>597</v>
+      <c r="C136" s="19" t="s">
+        <v>598</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>35</v>
@@ -9224,24 +9219,24 @@
         <v>145</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="J136" s="9" t="n">
+        <v>600</v>
+      </c>
+      <c r="J136" s="8" t="n">
         <v>1.2</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="137">
       <c r="A137" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -9256,13 +9251,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="138">
       <c r="A138" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B138" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>603</v>
+      <c r="C138" s="9" t="s">
+        <v>604</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>14</v>
@@ -9274,135 +9269,135 @@
         <v>168</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="I138" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="J138" s="9" t="n">
+      <c r="I138" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="J138" s="8" t="n">
         <v>0.9</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="139">
       <c r="A139" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B139" s="11" t="n">
+        <v>609</v>
+      </c>
+      <c r="B139" s="10" t="n">
         <v>38</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="13" t="n">
+      <c r="E139" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="J139" s="14" t="n">
+        <v>613</v>
+      </c>
+      <c r="J139" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="140">
       <c r="A140" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B140" s="11" t="n">
+        <v>614</v>
+      </c>
+      <c r="B140" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C140" s="18" t="s">
-        <v>614</v>
+      <c r="C140" s="16" t="s">
+        <v>615</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="13" t="n">
+      <c r="E140" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>174</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="J140" s="14" t="n">
+        <v>613</v>
+      </c>
+      <c r="J140" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="141">
       <c r="A141" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B141" s="11" t="n">
+        <v>617</v>
+      </c>
+      <c r="B141" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="C141" s="12" t="s">
-        <v>586</v>
+      <c r="C141" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E141" s="13" t="n">
+      <c r="E141" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>186</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="J141" s="14" t="n">
+        <v>590</v>
+      </c>
+      <c r="J141" s="13" t="n">
         <v>1.2</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="142">
       <c r="A142" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B142" s="5" t="n">
         <v>155</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>113</v>
@@ -9411,103 +9406,103 @@
         <v>4</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="J142" s="9" t="n">
+        <v>625</v>
+      </c>
+      <c r="J142" s="8" t="n">
         <v>0.9</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="143">
       <c r="A143" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="B143" s="11" t="n">
+        <v>627</v>
+      </c>
+      <c r="B143" s="10" t="n">
         <v>90</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E143" s="13" t="n">
+      <c r="E143" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="J143" s="14" t="n">
+        <v>630</v>
+      </c>
+      <c r="J143" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="144">
       <c r="A144" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="B144" s="11" t="n">
+        <v>632</v>
+      </c>
+      <c r="B144" s="10" t="n">
         <v>30</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="13" t="n">
+      <c r="E144" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="J144" s="14" t="n">
+        <v>635</v>
+      </c>
+      <c r="J144" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="145">
       <c r="A145" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B145" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>14</v>
@@ -9531,87 +9526,87 @@
         <v>100</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="146">
       <c r="A146" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="B146" s="11" t="n">
+        <v>639</v>
+      </c>
+      <c r="B146" s="10" t="n">
         <v>77</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>639</v>
+      <c r="C146" s="16" t="s">
+        <v>640</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E146" s="13" t="n">
+      <c r="E146" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="J146" s="14" t="n">
+        <v>613</v>
+      </c>
+      <c r="J146" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="147">
       <c r="A147" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="B147" s="11" t="n">
+        <v>642</v>
+      </c>
+      <c r="B147" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="C147" s="18" t="s">
-        <v>642</v>
+      <c r="C147" s="16" t="s">
+        <v>643</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E147" s="13" t="n">
+      <c r="E147" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>398</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="J147" s="14" t="n">
+        <v>645</v>
+      </c>
+      <c r="J147" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="148">
       <c r="A148" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B148" s="5" t="n">
         <v>202</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D148" s="4" t="s">
@@ -9624,30 +9619,30 @@
         <v>137</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>647</v>
+        <v>605</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>648</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="J148" s="9" t="n">
+        <v>649</v>
+      </c>
+      <c r="J148" s="8" t="n">
         <v>2.7</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="149">
       <c r="A149" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B149" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>650</v>
+      <c r="C149" s="16" t="s">
+        <v>651</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>35</v>
@@ -9659,24 +9654,24 @@
         <v>157</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>651</v>
+        <v>605</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>652</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="J149" s="9" t="n">
+        <v>653</v>
+      </c>
+      <c r="J149" s="8" t="n">
         <v>2.7</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="150">
       <c r="A150" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -9691,118 +9686,118 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="151">
       <c r="A151" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B151" s="13" t="n">
+        <v>656</v>
+      </c>
+      <c r="B151" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>656</v>
+      <c r="C151" s="11" t="s">
+        <v>657</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E151" s="13" t="n">
+      <c r="E151" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="J151" s="28" t="n">
+        <v>661</v>
+      </c>
+      <c r="J151" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="152">
       <c r="A152" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B152" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="C152" s="18" t="s">
-        <v>663</v>
+      <c r="C152" s="16" t="s">
+        <v>664</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="J152" s="9" t="n">
+        <v>669</v>
+      </c>
+      <c r="J152" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="153">
       <c r="A153" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="B153" s="11" t="n">
+        <v>671</v>
+      </c>
+      <c r="B153" s="10" t="n">
         <v>153</v>
       </c>
-      <c r="C153" s="18" t="s">
-        <v>671</v>
+      <c r="C153" s="16" t="s">
+        <v>672</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E153" s="13" t="n">
+      <c r="E153" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="J153" s="28" t="n">
+        <v>674</v>
+      </c>
+      <c r="J153" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="154">
       <c r="A154" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B154" s="5" t="n">
         <v>154</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>113</v>
@@ -9814,144 +9809,144 @@
         <v>388</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="J154" s="29" t="n">
+        <v>678</v>
+      </c>
+      <c r="J154" s="27" t="n">
         <v>0.625</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="155">
       <c r="A155" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="B155" s="11" t="n">
+        <v>680</v>
+      </c>
+      <c r="B155" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>680</v>
+      <c r="C155" s="16" t="s">
+        <v>681</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E155" s="13" t="n">
+      <c r="E155" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="J155" s="28" t="n">
+        <v>674</v>
+      </c>
+      <c r="J155" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="156">
       <c r="A156" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B156" s="11" t="n">
+        <v>682</v>
+      </c>
+      <c r="B156" s="10" t="n">
         <v>115</v>
       </c>
-      <c r="C156" s="18" t="s">
-        <v>682</v>
+      <c r="C156" s="16" t="s">
+        <v>683</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="13" t="n">
+      <c r="E156" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="J156" s="28" t="n">
+        <v>685</v>
+      </c>
+      <c r="J156" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="157">
       <c r="A157" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="B157" s="11" t="n">
+        <v>686</v>
+      </c>
+      <c r="B157" s="10" t="n">
         <v>80</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E157" s="13" t="n">
+      <c r="E157" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="J157" s="28" t="n">
+        <v>685</v>
+      </c>
+      <c r="J157" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="158">
       <c r="A158" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="B158" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="13" t="n">
+      <c r="E158" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>98</v>
@@ -9966,42 +9961,42 @@
         <v>100</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="159">
       <c r="A159" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B159" s="11" t="n">
+        <v>690</v>
+      </c>
+      <c r="B159" s="10" t="n">
         <v>80</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E159" s="13" t="n">
+        <v>665</v>
+      </c>
+      <c r="E159" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="J159" s="14" t="n">
+        <v>685</v>
+      </c>
+      <c r="J159" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="160">
@@ -10041,7 +10036,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="161">
       <c r="A161" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -10056,112 +10051,112 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="162">
       <c r="A162" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E162" s="13" t="n">
+      <c r="E162" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I162" s="30" t="n">
+      <c r="I162" s="28" t="n">
         <v>-528.28</v>
       </c>
-      <c r="J162" s="14" t="n">
+      <c r="J162" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="163">
       <c r="A163" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E163" s="13" t="n">
+      <c r="E163" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="J163" s="14" t="n">
+        <v>701</v>
+      </c>
+      <c r="J163" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="164">
       <c r="A164" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="C164" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E164" s="13" t="n">
+      <c r="E164" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="J164" s="14" t="n">
+        <v>701</v>
+      </c>
+      <c r="J164" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="165">
       <c r="A165" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -10176,48 +10171,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="166">
       <c r="A166" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="B166" s="11" t="n">
+        <v>707</v>
+      </c>
+      <c r="B166" s="10" t="n">
         <v>22</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="13" t="n">
+      <c r="E166" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="J166" s="14" t="n">
+        <v>710</v>
+      </c>
+      <c r="J166" s="13" t="n">
         <v>2</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="167">
       <c r="A167" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>29</v>
@@ -10229,33 +10224,33 @@
         <v>198</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="J167" s="9" t="n">
+        <v>715</v>
+      </c>
+      <c r="J167" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="168">
       <c r="A168" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E168" s="5" t="n">
         <v>0</v>
@@ -10264,30 +10259,30 @@
         <v>120</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="J168" s="16" t="n">
+        <v>720</v>
+      </c>
+      <c r="J168" s="14" t="n">
         <v>0.75</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="169">
       <c r="A169" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>29</v>
@@ -10296,27 +10291,27 @@
         <v>0</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="J169" s="9" t="n">
+        <v>725</v>
+      </c>
+      <c r="J169" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="170">
       <c r="A170" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -10333,20 +10328,20 @@
       <c r="A171" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="172">
       <c r="A172" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -10361,153 +10356,153 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="173">
       <c r="A173" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B173" s="11" t="n">
+        <v>728</v>
+      </c>
+      <c r="B173" s="10" t="n">
         <v>62</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E173" s="13" t="n">
+      <c r="E173" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="J173" s="14" t="n">
+        <v>731</v>
+      </c>
+      <c r="J173" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="174">
       <c r="A174" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="B174" s="11" t="n">
+        <v>733</v>
+      </c>
+      <c r="B174" s="10" t="n">
         <v>19</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E174" s="13" t="n">
+      <c r="E174" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="J174" s="14" t="n">
+        <v>735</v>
+      </c>
+      <c r="J174" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="175">
       <c r="A175" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="B175" s="11" t="n">
+        <v>737</v>
+      </c>
+      <c r="B175" s="10" t="n">
         <v>25</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E175" s="13" t="n">
+      <c r="E175" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>267</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="J175" s="14" t="n">
+        <v>427</v>
+      </c>
+      <c r="J175" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="176">
       <c r="A176" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="C176" s="18" t="s">
         <v>741</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>742</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E176" s="13" t="n">
+      <c r="E176" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="J176" s="14" t="n">
+        <v>744</v>
+      </c>
+      <c r="J176" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="177">
       <c r="A177" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>69</v>
@@ -10519,65 +10514,65 @@
         <v>198</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="J177" s="9" t="n">
+        <v>750</v>
+      </c>
+      <c r="J177" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="178">
       <c r="A178" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E178" s="13" t="n">
+      <c r="E178" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H178" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="J178" s="14" t="n">
+        <v>755</v>
+      </c>
+      <c r="J178" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="179">
       <c r="A179" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C179" s="18" t="s">
         <v>758</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>759</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>35</v>
@@ -10586,33 +10581,33 @@
         <v>6</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="J179" s="9" t="n">
+        <v>760</v>
+      </c>
+      <c r="J179" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="180">
       <c r="A180" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B180" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>762</v>
+      <c r="C180" s="19" t="s">
+        <v>763</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>35</v>
@@ -10621,27 +10616,27 @@
         <v>6</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="H180" s="8" t="s">
-        <v>763</v>
+        <v>730</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>764</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="J180" s="9" t="n">
+        <v>765</v>
+      </c>
+      <c r="J180" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="181">
       <c r="A181" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -10656,118 +10651,118 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="182">
       <c r="A182" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="B182" s="11" t="n">
+        <v>768</v>
+      </c>
+      <c r="B182" s="10" t="n">
         <v>18</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E182" s="13" t="n">
+      <c r="E182" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="J182" s="14" t="n">
+        <v>771</v>
+      </c>
+      <c r="J182" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="183">
       <c r="A183" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="C183" s="18" t="s">
         <v>774</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>775</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E183" s="13" t="n">
+      <c r="E183" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="J183" s="14" t="n">
+        <v>776</v>
+      </c>
+      <c r="J183" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="184">
       <c r="A184" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E184" s="13" t="n">
+      <c r="E184" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="J184" s="14" t="n">
+        <v>781</v>
+      </c>
+      <c r="J184" s="13" t="n">
         <v>0.5</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="185">
       <c r="A185" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>69</v>
@@ -10776,33 +10771,33 @@
         <v>3</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="J185" s="9" t="n">
+        <v>787</v>
+      </c>
+      <c r="J185" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="186">
       <c r="A186" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="C186" s="18" t="s">
         <v>790</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>791</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>35</v>
@@ -10811,27 +10806,27 @@
         <v>3</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="J186" s="9" t="n">
+        <v>793</v>
+      </c>
+      <c r="J186" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="187">
       <c r="A187" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -10846,48 +10841,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="188">
       <c r="A188" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="B188" s="13" t="n">
+        <v>796</v>
+      </c>
+      <c r="B188" s="12" t="n">
         <v>5</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E188" s="13" t="n">
+      <c r="E188" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I188" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="J188" s="14" t="n">
+        <v>799</v>
+      </c>
+      <c r="J188" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="189">
       <c r="A189" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>29</v>
@@ -10896,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>98</v>
@@ -10904,14 +10899,14 @@
       <c r="H189" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I189" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="J189" s="9" t="n">
+      <c r="I189" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="J189" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="190">
@@ -10951,13 +10946,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="191">
       <c r="A191" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B191" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>113</v>
@@ -10969,30 +10964,30 @@
         <v>247</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="J191" s="9" t="n">
+        <v>807</v>
+      </c>
+      <c r="J191" s="8" t="n">
         <v>0.2</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="192">
       <c r="A192" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B192" s="5" t="n">
         <v>19</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>29</v>
@@ -11001,33 +10996,33 @@
         <v>3</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I192" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="J192" s="9" t="n">
+      <c r="I192" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="J192" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="193">
       <c r="A193" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B193" s="5" t="n">
         <v>67</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>113</v>
@@ -11036,33 +11031,33 @@
         <v>3</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="J193" s="9" t="n">
+        <v>817</v>
+      </c>
+      <c r="J193" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K193" s="8" t="s">
-        <v>817</v>
+      <c r="K193" s="7" t="s">
+        <v>818</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="194">
       <c r="A194" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B194" s="5" t="n">
         <v>33</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>29</v>
@@ -11071,33 +11066,33 @@
         <v>0</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H194" s="8" t="s">
-        <v>820</v>
+      <c r="H194" s="7" t="s">
+        <v>821</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="J194" s="9" t="n">
+        <v>822</v>
+      </c>
+      <c r="J194" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="195">
       <c r="A195" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>113</v>
@@ -11109,30 +11104,30 @@
         <v>273</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="J195" s="9" t="n">
+        <v>826</v>
+      </c>
+      <c r="J195" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="196">
       <c r="A196" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>407</v>
+        <v>829</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>22</v>
@@ -11141,68 +11136,68 @@
         <v>0</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="J196" s="9" t="n">
+        <v>832</v>
+      </c>
+      <c r="J196" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="197">
       <c r="A197" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="B197" s="11" t="n">
+        <v>834</v>
+      </c>
+      <c r="B197" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E197" s="13" t="n">
+      <c r="E197" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H197" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I197" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="J197" s="14" t="n">
+        <v>836</v>
+      </c>
+      <c r="J197" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="198">
       <c r="A198" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B198" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="C198" s="20" t="s">
-        <v>838</v>
+      <c r="C198" s="18" t="s">
+        <v>839</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>113</v>
@@ -11214,30 +11209,30 @@
         <v>36</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="J198" s="9" t="n">
+        <v>841</v>
+      </c>
+      <c r="J198" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="199">
       <c r="A199" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="C199" s="20" t="s">
         <v>844</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>845</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>29</v>
@@ -11261,12 +11256,12 @@
         <v>100</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="200">
       <c r="A200" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -11281,118 +11276,118 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="201">
       <c r="A201" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="B201" s="11" t="n">
+        <v>848</v>
+      </c>
+      <c r="B201" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E201" s="13" t="n">
+      <c r="E201" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="J201" s="14" t="n">
+        <v>852</v>
+      </c>
+      <c r="J201" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="202">
       <c r="A202" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="B202" s="11" t="n">
+        <v>854</v>
+      </c>
+      <c r="B202" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E202" s="13" t="n">
+      <c r="E202" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="J202" s="14" t="n">
+        <v>857</v>
+      </c>
+      <c r="J202" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="203">
       <c r="A203" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E203" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="J203" s="9" t="n">
+        <v>861</v>
+      </c>
+      <c r="J203" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="204">
       <c r="A204" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>35</v>
@@ -11401,27 +11396,27 @@
         <v>0</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="J204" s="9" t="n">
+        <v>867</v>
+      </c>
+      <c r="J204" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="205">
       <c r="A205" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -11436,188 +11431,188 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="206">
       <c r="A206" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="C206" s="18" t="s">
         <v>871</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>872</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E206" s="13" t="n">
+      <c r="E206" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="J206" s="14" t="n">
+        <v>426</v>
+      </c>
+      <c r="J206" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="207">
       <c r="A207" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="B207" s="13" t="n">
+        <v>876</v>
+      </c>
+      <c r="B207" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C207" s="18" t="s">
-        <v>876</v>
+      <c r="C207" s="16" t="s">
+        <v>877</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E207" s="13" t="n">
+      <c r="E207" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I207" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="J207" s="14" t="n">
+        <v>426</v>
+      </c>
+      <c r="J207" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="208">
       <c r="A208" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="B208" s="11" t="n">
+        <v>881</v>
+      </c>
+      <c r="B208" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="C208" s="18" t="s">
         <v>405</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E208" s="13" t="n">
+      <c r="E208" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I208" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="J208" s="14" t="n">
+        <v>852</v>
+      </c>
+      <c r="J208" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="209">
       <c r="A209" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="B209" s="11" t="n">
+        <v>884</v>
+      </c>
+      <c r="B209" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C209" s="20" t="s">
-        <v>884</v>
+      <c r="C209" s="18" t="s">
+        <v>885</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E209" s="13" t="n">
+      <c r="E209" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="J209" s="14" t="n">
+        <v>426</v>
+      </c>
+      <c r="J209" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="210">
       <c r="A210" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="B210" s="13" t="n">
+        <v>887</v>
+      </c>
+      <c r="B210" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C210" s="18" t="s">
-        <v>887</v>
+      <c r="C210" s="16" t="s">
+        <v>888</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E210" s="13" t="n">
+      <c r="E210" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="J210" s="14" t="n">
+        <v>889</v>
+      </c>
+      <c r="J210" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="211">
       <c r="A211" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B211" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C211" s="20" t="s">
-        <v>891</v>
+      <c r="C211" s="18" t="s">
+        <v>892</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>29</v>
@@ -11626,27 +11621,27 @@
         <v>10</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="H211" s="8" t="s">
         <v>893</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>894</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J211" s="9" t="n">
+      <c r="J211" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="212">
       <c r="A212" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>69</v>
@@ -11655,74 +11650,74 @@
         <v>405</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E212" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="J212" s="9" t="n">
+        <v>897</v>
+      </c>
+      <c r="J212" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="213">
       <c r="A213" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>899</v>
+        <v>408</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>900</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E213" s="13" t="n">
+      <c r="E213" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>398</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="J213" s="14" t="n">
+        <v>901</v>
+      </c>
+      <c r="J213" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="214">
       <c r="A214" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="C214" s="18" t="s">
         <v>903</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>904</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>113</v>
@@ -11734,30 +11729,30 @@
         <v>36</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="J214" s="9" t="n">
+        <v>907</v>
+      </c>
+      <c r="J214" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="215">
-      <c r="A215" s="8" t="s">
-        <v>908</v>
+      <c r="A215" s="7" t="s">
+        <v>909</v>
       </c>
       <c r="B215" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="C215" s="10" t="s">
-        <v>909</v>
+      <c r="C215" s="9" t="s">
+        <v>910</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>35</v>
@@ -11766,22 +11761,22 @@
         <v>0</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="J215" s="9" t="n">
+        <v>911</v>
+      </c>
+      <c r="J215" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="216">
@@ -11821,48 +11816,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="217">
       <c r="A217" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="B217" s="11" t="n">
+        <v>913</v>
+      </c>
+      <c r="B217" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C217" s="12" t="s">
-        <v>913</v>
+      <c r="C217" s="11" t="s">
+        <v>914</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E217" s="13" t="n">
+      <c r="E217" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="J217" s="14" t="n">
+        <v>915</v>
+      </c>
+      <c r="J217" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="218">
       <c r="A218" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="C218" s="18" t="s">
         <v>918</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>919</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>69</v>
@@ -11871,33 +11866,33 @@
         <v>9</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="H218" s="8" t="s">
-        <v>919</v>
+        <v>873</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>920</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J218" s="9" t="n">
+        <v>426</v>
+      </c>
+      <c r="J218" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="219">
       <c r="A219" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C219" s="21" t="s">
         <v>922</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>923</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>35</v>
@@ -11906,33 +11901,33 @@
         <v>10</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="H219" s="8" t="s">
         <v>924</v>
       </c>
+      <c r="H219" s="7" t="s">
+        <v>925</v>
+      </c>
       <c r="I219" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J219" s="9" t="n">
+        <v>426</v>
+      </c>
+      <c r="J219" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="220">
       <c r="A220" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B220" s="5" t="n">
         <v>201</v>
       </c>
-      <c r="C220" s="20" t="s">
-        <v>927</v>
+      <c r="C220" s="18" t="s">
+        <v>928</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>35</v>
@@ -11941,33 +11936,33 @@
         <v>11</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J220" s="9" t="n">
+        <v>426</v>
+      </c>
+      <c r="J220" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="221">
       <c r="A221" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="C221" s="18" t="s">
         <v>931</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>932</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>113</v>
@@ -11979,24 +11974,24 @@
         <v>157</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="H221" s="8" t="s">
-        <v>932</v>
+        <v>905</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>933</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="J221" s="9" t="n">
+        <v>907</v>
+      </c>
+      <c r="J221" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="222">
       <c r="A222" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -12011,13 +12006,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="223">
       <c r="A223" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B223" s="5" t="n">
         <v>14</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>35</v>
@@ -12026,103 +12021,103 @@
         <v>0</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="I223" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="J223" s="9" t="n">
+        <v>426</v>
+      </c>
+      <c r="I223" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="J223" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="224">
       <c r="A224" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E224" s="13" t="n">
+        <v>665</v>
+      </c>
+      <c r="E224" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I224" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="J224" s="14" t="n">
+        <v>408</v>
+      </c>
+      <c r="J224" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="225">
       <c r="A225" s="7" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>405</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E225" s="13" t="n">
+        <v>665</v>
+      </c>
+      <c r="E225" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F225" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I225" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J225" s="14" t="n">
+        <v>944</v>
+      </c>
+      <c r="J225" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="226">
       <c r="A226" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B226" s="5" t="n">
         <v>14</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>14</v>
@@ -12134,24 +12129,24 @@
         <v>78</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="I226" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="J226" s="9" t="n">
+      <c r="I226" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="J226" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="227">
       <c r="A227" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -12166,13 +12161,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="228">
       <c r="A228" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>951</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>29</v>
@@ -12181,33 +12176,33 @@
         <v>0</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="J228" s="9" t="n">
+        <v>954</v>
+      </c>
+      <c r="J228" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="229">
       <c r="A229" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>955</v>
+        <v>408</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>956</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>113</v>
@@ -12216,178 +12211,178 @@
         <v>0</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="J229" s="9" t="n">
+        <v>957</v>
+      </c>
+      <c r="J229" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="230">
-      <c r="A230" s="18" t="s">
-        <v>958</v>
+      <c r="A230" s="16" t="s">
+        <v>959</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C230" s="18" t="s">
-        <v>959</v>
+        <v>408</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>960</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E230" s="13" t="n">
+      <c r="E230" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="J230" s="14" t="n">
+        <v>961</v>
+      </c>
+      <c r="J230" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="231">
       <c r="A231" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>963</v>
+        <v>408</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>964</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E231" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F231" s="8" t="s">
-        <v>964</v>
+      <c r="F231" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="J231" s="9" t="n">
+        <v>966</v>
+      </c>
+      <c r="J231" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="232">
       <c r="A232" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E232" s="13" t="n">
+        <v>665</v>
+      </c>
+      <c r="E232" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="J232" s="14" t="n">
+        <v>972</v>
+      </c>
+      <c r="J232" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="233">
       <c r="A233" s="7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E233" s="13" t="n">
+        <v>665</v>
+      </c>
+      <c r="E233" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="J233" s="14" t="n">
+        <v>977</v>
+      </c>
+      <c r="J233" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="234">
-      <c r="A234" s="31" t="s">
-        <v>978</v>
-      </c>
-      <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="31"/>
-      <c r="G234" s="31"/>
-      <c r="H234" s="31"/>
-      <c r="I234" s="31"/>
-      <c r="J234" s="31"/>
-      <c r="K234" s="31"/>
+      <c r="A234" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29"/>
+      <c r="F234" s="29"/>
+      <c r="G234" s="29"/>
+      <c r="H234" s="29"/>
+      <c r="I234" s="29"/>
+      <c r="J234" s="29"/>
+      <c r="K234" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/sits/msit_klingon.xlsx
+++ b/sits/msit_klingon.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="981">
   <si>
     <t>Designation</t>
   </si>
@@ -3670,6 +3670,9 @@
   </si>
   <si>
     <t>1-4(6)/None</t>
+  </si>
+  <si>
+    <t>F&amp;E (WTF?)</t>
   </si>
   <si>
     <t>From FRD: 2+6</t>
@@ -4726,8 +4729,8 @@
   </sheetPr>
   <dimension ref="A1:K234"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A69" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A82" activeCellId="0" pane="topLeft" sqref="A82"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A189" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D203" activeCellId="0" pane="topLeft" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11320,7 +11323,7 @@
         <v>855</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>14</v>
+        <v>856</v>
       </c>
       <c r="E202" s="12" t="n">
         <v>0</v>
@@ -11332,27 +11335,27 @@
         <v>851</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J202" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="203">
       <c r="A203" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>665</v>
@@ -11370,24 +11373,24 @@
         <v>426</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J203" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="204">
       <c r="A204" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>35</v>
@@ -11402,21 +11405,21 @@
         <v>851</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J204" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="205">
       <c r="A205" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -11431,13 +11434,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="206">
       <c r="A206" s="7" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>29</v>
@@ -11449,10 +11452,10 @@
         <v>658</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I206" s="7" t="s">
         <v>426</v>
@@ -11461,18 +11464,18 @@
         <v>0</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="207">
       <c r="A207" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B207" s="12" t="n">
         <v>2</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>14</v>
@@ -11484,10 +11487,10 @@
         <v>666</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="I207" s="7" t="s">
         <v>426</v>
@@ -11496,12 +11499,12 @@
         <v>0</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="208">
       <c r="A208" s="7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B208" s="10" t="n">
         <v>24</v>
@@ -11519,7 +11522,7 @@
         <v>850</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H208" s="7" t="s">
         <v>426</v>
@@ -11531,18 +11534,18 @@
         <v>0</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="209">
       <c r="A209" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B209" s="10" t="n">
         <v>24</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>14</v>
@@ -11554,7 +11557,7 @@
         <v>850</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>426</v>
@@ -11566,18 +11569,18 @@
         <v>0</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="210">
       <c r="A210" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B210" s="12" t="n">
         <v>4</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>35</v>
@@ -11595,24 +11598,24 @@
         <v>45</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J210" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="211">
       <c r="A211" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B211" s="5" t="n">
         <v>100</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>29</v>
@@ -11624,10 +11627,10 @@
         <v>472</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>31</v>
@@ -11636,12 +11639,12 @@
         <v>0</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="212">
       <c r="A212" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>69</v>
@@ -11665,24 +11668,24 @@
         <v>426</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J212" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="213">
       <c r="A213" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>22</v>
@@ -11700,7 +11703,7 @@
         <v>45</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="J213" s="13" t="n">
         <v>0</v>
@@ -11711,13 +11714,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="214">
       <c r="A214" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>113</v>
@@ -11729,30 +11732,30 @@
         <v>36</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J214" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="215">
       <c r="A215" s="7" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B215" s="5" t="n">
         <v>17</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>35</v>
@@ -11770,13 +11773,13 @@
         <v>45</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J215" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="216">
@@ -11816,13 +11819,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="217">
       <c r="A217" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B217" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>35</v>
@@ -11840,24 +11843,24 @@
         <v>45</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="J217" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="218">
       <c r="A218" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>69</v>
@@ -11869,10 +11872,10 @@
         <v>529</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I218" s="4" t="s">
         <v>426</v>
@@ -11881,18 +11884,18 @@
         <v>0</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="219">
       <c r="A219" s="4" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>35</v>
@@ -11904,10 +11907,10 @@
         <v>529</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>426</v>
@@ -11916,18 +11919,18 @@
         <v>0</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="220">
       <c r="A220" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B220" s="5" t="n">
         <v>201</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>35</v>
@@ -11939,10 +11942,10 @@
         <v>529</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I220" s="4" t="s">
         <v>426</v>
@@ -11951,18 +11954,18 @@
         <v>0</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="221">
       <c r="A221" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>113</v>
@@ -11974,24 +11977,24 @@
         <v>157</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J221" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="222">
       <c r="A222" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -12006,7 +12009,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="223">
       <c r="A223" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B223" s="5" t="n">
         <v>14</v>
@@ -12030,24 +12033,24 @@
         <v>426</v>
       </c>
       <c r="I223" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J223" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="224">
       <c r="A224" s="7" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>665</v>
@@ -12062,7 +12065,7 @@
         <v>426</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="I224" s="7" t="s">
         <v>408</v>
@@ -12071,12 +12074,12 @@
         <v>0</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="225">
       <c r="A225" s="7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>408</v>
@@ -12100,24 +12103,24 @@
         <v>426</v>
       </c>
       <c r="I225" s="7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J225" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="226">
       <c r="A226" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B226" s="5" t="n">
         <v>14</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>14</v>
@@ -12132,21 +12135,21 @@
         <v>426</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="J226" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="227">
       <c r="A227" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -12161,13 +12164,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="228">
       <c r="A228" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>953</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>952</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>29</v>
@@ -12185,24 +12188,24 @@
         <v>426</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="J228" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="229">
       <c r="A229" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>113</v>
@@ -12220,24 +12223,24 @@
         <v>426</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J229" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="230">
       <c r="A230" s="16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>35</v>
@@ -12255,24 +12258,24 @@
         <v>426</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="J230" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="231">
       <c r="A231" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>665</v>
@@ -12281,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G231" s="4" t="s">
         <v>426</v>
@@ -12290,24 +12293,24 @@
         <v>426</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J231" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="232">
       <c r="A232" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>665</v>
@@ -12316,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G232" s="7" t="s">
         <v>426</v>
@@ -12325,24 +12328,24 @@
         <v>426</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J232" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="233">
       <c r="A233" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>665</v>
@@ -12351,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G233" s="7" t="s">
         <v>426</v>
@@ -12360,18 +12363,18 @@
         <v>426</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="J233" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K233" s="7" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="234">
       <c r="A234" s="29" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>

--- a/sits/msit_klingon.xlsx
+++ b/sits/msit_klingon.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="986">
   <si>
     <t>Designation</t>
   </si>
@@ -3808,81 +3808,14 @@
     <t>See (433.41), (441.0), and (510.3)</t>
   </si>
   <si>
-    <t>MB (ND)</t>
-  </si>
-  <si>
-    <t>MB(3)</t>
-  </si>
-  <si>
-    <t>Undeployed MB</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="MS Gothic"/>
-        <charset val="1"/>
-        <family val="3"/>
-        <sz val="9"/>
-      </rPr>
-      <t xml:space="preserve">◆</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <sz val="9"/>
-      </rPr>
-      <t xml:space="preserve">/4</t>
-    </r>
-  </si>
-  <si>
-    <t>See (510.2); EW=1</t>
-  </si>
-  <si>
-    <t>Ftr-Module</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0(3)/0(1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="MS Gothic"/>
-        <charset val="1"/>
-        <family val="3"/>
-        <sz val="9"/>
-      </rPr>
-      <t xml:space="preserve">▲</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <sz val="9"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t>(441.4): 1+3</t>
-  </si>
-  <si>
-    <t>Fighter module for base or FRD</t>
-  </si>
-  <si>
-    <t>SBA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">36A(12)PP</t>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>R1.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36(12)PP</t>
     </r>
     <r>
       <rPr>
@@ -3917,6 +3850,122 @@
     <t>SB(1)</t>
   </si>
   <si>
+    <t>From BATS: 30+6 From STB: 20+6</t>
+  </si>
+  <si>
+    <t>Upgrade Only</t>
+  </si>
+  <si>
+    <t>Starbase. See EW Chart. See (433.41), (441.0), and (510.3). Module
+Limits 4FTM+2PFM.</t>
+  </si>
+  <si>
+    <t>MB (ND)</t>
+  </si>
+  <si>
+    <t>MB(3)</t>
+  </si>
+  <si>
+    <t>Undeployed MB</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">/4</t>
+    </r>
+  </si>
+  <si>
+    <t>See (510.2); EW=1</t>
+  </si>
+  <si>
+    <t>Ftr-Module</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0(3)/0(1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">▲</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t>(441.4): 1+3</t>
+  </si>
+  <si>
+    <t>Fighter module for base or FRD</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36A(12)PP</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">/
+18(6)P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+  </si>
+  <si>
     <t>From SB: 3 or 6
 See (312.12)</t>
   </si>
@@ -3985,9 +4034,6 @@
   </si>
   <si>
     <t>From BATS: 12+ftrs From BS: 15+ftrs</t>
-  </si>
-  <si>
-    <t>Upgrade Only</t>
   </si>
   <si>
     <t>Sector Base; see EW chart.</t>
@@ -4727,10 +4773,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K234"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A189" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D203" activeCellId="0" pane="topLeft" sqref="D203"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A200" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H208" activeCellId="0" pane="topLeft" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11502,412 +11548,412 @@
         <v>881</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="208">
-      <c r="A208" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="208">
+      <c r="A208" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="B208" s="10" t="n">
-        <v>24</v>
+      <c r="B208" s="4" t="s">
+        <v>883</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="D208" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E208" s="12" t="n">
+      <c r="E208" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="J208" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="I208" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="J208" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="K208" s="7" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="209">
       <c r="A209" s="7" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B209" s="10" t="n">
         <v>24</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>886</v>
+        <v>405</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E209" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>850</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="H209" s="7" t="s">
         <v>426</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>426</v>
+        <v>852</v>
       </c>
       <c r="J209" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="210">
       <c r="A210" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="B210" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>889</v>
+        <v>892</v>
+      </c>
+      <c r="B210" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>893</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E210" s="12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>198</v>
+        <v>850</v>
       </c>
       <c r="G210" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="H210" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H210" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="I210" s="7" t="s">
-        <v>890</v>
+        <v>426</v>
       </c>
       <c r="J210" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="211">
-      <c r="A211" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="B211" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E211" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="G211" s="4" t="s">
         <v>894</v>
       </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="211">
+      <c r="A211" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B211" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E211" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="H211" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="I211" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J211" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="J211" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K211" s="4" t="s">
-        <v>896</v>
+      <c r="K211" s="7" t="s">
+        <v>898</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="212">
       <c r="A212" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>405</v>
+        <v>899</v>
+      </c>
+      <c r="B212" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>900</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>665</v>
+        <v>29</v>
       </c>
       <c r="E212" s="6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>426</v>
+        <v>885</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>898</v>
+        <v>31</v>
       </c>
       <c r="J212" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="213">
-      <c r="A213" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="B213" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="213">
+      <c r="A213" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E213" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="J213" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="214">
+      <c r="A214" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C213" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="D213" s="7" t="s">
+      <c r="C214" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E213" s="12" t="n">
+      <c r="E214" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="F214" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G213" s="7" t="s">
+      <c r="G214" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H213" s="7" t="s">
+      <c r="H214" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I213" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="J213" s="13" t="n">
+      <c r="I214" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="J214" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K213" s="7" t="s">
+      <c r="K214" s="7" t="s">
         <v>804</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="214">
-      <c r="A214" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>905</v>
-      </c>
-      <c r="D214" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="215">
+      <c r="A215" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E214" s="6" t="n">
+      <c r="E215" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F215" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G214" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="H214" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="J214" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" s="4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="215">
-      <c r="A215" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="B215" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>911</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E215" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="G215" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>45</v>
+        <v>912</v>
+      </c>
+      <c r="H215" s="7" t="s">
+        <v>913</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="J215" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="216">
-      <c r="A216" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="216">
+      <c r="A216" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B216" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="F216" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="J216" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="217">
+      <c r="A217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="I217" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J217" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K216" s="1" t="s">
+      <c r="K217" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="217">
-      <c r="A217" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="B217" s="10" t="n">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="218">
+      <c r="A218" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B218" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C217" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="D217" s="7" t="s">
+      <c r="C218" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D218" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E217" s="12" t="n">
+      <c r="E218" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F217" s="7" t="s">
+      <c r="F218" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="G218" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H217" s="7" t="s">
+      <c r="H218" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I217" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="J217" s="13" t="n">
+      <c r="I218" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="J218" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K217" s="7" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="218">
-      <c r="A218" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="D218" s="4" t="s">
+      <c r="K218" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="219">
+      <c r="A219" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D219" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E218" s="6" t="n">
+      <c r="E219" s="6" t="n">
         <v>9</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="H218" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="J218" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K218" s="4" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="219">
-      <c r="A219" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="C219" s="19" t="s">
-        <v>924</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E219" s="6" t="n">
-        <v>10</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>529</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>926</v>
@@ -11919,33 +11965,33 @@
         <v>0</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="220">
       <c r="A220" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B220" s="5" t="n">
-        <v>201</v>
-      </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="19" t="s">
         <v>929</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>529</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I220" s="4" t="s">
         <v>426</v>
@@ -11954,138 +12000,138 @@
         <v>0</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="221">
+        <v>932</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="221">
       <c r="A221" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="C221" s="16" t="s">
         <v>933</v>
       </c>
+      <c r="B221" s="5" t="n">
+        <v>201</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>934</v>
+      </c>
       <c r="D221" s="4" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="E221" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>157</v>
+        <v>529</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>908</v>
+        <v>426</v>
       </c>
       <c r="J221" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="222">
-      <c r="A222" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="222">
+      <c r="A222" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="223">
-      <c r="A223" s="4" t="s">
+      <c r="B222" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="B223" s="5" t="n">
+      <c r="C222" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E222" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="J222" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="223">
+      <c r="A223" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="224">
+      <c r="A224" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B224" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D224" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E223" s="6" t="n">
+      <c r="E224" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F224" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="G223" s="4" t="s">
+      <c r="G224" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H223" s="4" t="s">
+      <c r="H224" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I223" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="J223" s="8" t="n">
+      <c r="I224" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="J224" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K223" s="4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="224">
-      <c r="A224" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E224" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H224" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="I224" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="J224" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K224" s="7" t="s">
-        <v>943</v>
+      <c r="K224" s="4" t="s">
+        <v>944</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="225">
       <c r="A225" s="7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>405</v>
+        <v>946</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>665</v>
@@ -12100,121 +12146,121 @@
         <v>426</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>426</v>
+        <v>947</v>
       </c>
       <c r="I225" s="7" t="s">
-        <v>945</v>
+        <v>408</v>
       </c>
       <c r="J225" s="13" t="n">
         <v>0</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="226">
-      <c r="A226" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="B226" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C226" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E226" s="6" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="226">
+      <c r="A226" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E226" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G226" s="4" t="s">
+      <c r="F226" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H226" s="4" t="s">
-        <v>949</v>
+      <c r="H226" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="I226" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="J226" s="8" t="n">
+      <c r="J226" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K226" s="4" t="s">
+      <c r="K226" s="7" t="s">
         <v>951</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="227">
-      <c r="A227" s="3" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="227">
+      <c r="A227" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="228">
-      <c r="A228" s="4" t="s">
+      <c r="B227" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="D227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H227" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E228" s="6" t="n">
+      <c r="I227" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="J227" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="J228" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K228" s="4" t="s">
-        <v>953</v>
-      </c>
+      <c r="K227" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="228">
+      <c r="A228" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="229">
       <c r="A229" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>957</v>
+        <v>959</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>958</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="E229" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="G229" s="4" t="s">
         <v>426</v>
@@ -12222,127 +12268,127 @@
       <c r="H229" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I229" s="7" t="s">
-        <v>958</v>
+      <c r="I229" s="4" t="s">
+        <v>960</v>
       </c>
       <c r="J229" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="230">
-      <c r="A230" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="B230" s="7" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="230">
+      <c r="A230" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C230" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="D230" s="7" t="s">
+      <c r="C230" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E230" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="J230" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="231">
+      <c r="A231" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>966</v>
+      </c>
+      <c r="D231" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E230" s="12" t="n">
+      <c r="E231" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="F231" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G230" s="7" t="s">
+      <c r="G231" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H230" s="7" t="s">
+      <c r="H231" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="I230" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="J230" s="13" t="n">
+      <c r="I231" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="J231" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K230" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="231">
-      <c r="A231" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="B231" s="4" t="s">
+      <c r="K231" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="232">
+      <c r="A232" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C231" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D231" s="4" t="s">
+      <c r="C232" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="E231" s="5" t="n">
+      <c r="E232" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F231" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="G231" s="4" t="s">
+      <c r="F232" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="G232" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H231" s="4" t="s">
+      <c r="H232" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I231" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="J231" s="8" t="n">
+      <c r="I232" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="J232" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K231" s="4" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="232">
-      <c r="A232" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E232" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H232" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="I232" s="7" t="s">
+      <c r="K232" s="4" t="s">
         <v>973</v>
-      </c>
-      <c r="J232" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K232" s="7" t="s">
-        <v>974</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="233">
       <c r="A233" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>975</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>970</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>976</v>
@@ -12373,19 +12419,54 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="234">
-      <c r="A234" s="29" t="s">
+      <c r="A234" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
-      <c r="J234" s="29"/>
-      <c r="K234" s="29"/>
+      <c r="B234" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E234" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I234" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="J234" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="235">
+      <c r="A235" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="B235" s="29"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29"/>
+      <c r="F235" s="29"/>
+      <c r="G235" s="29"/>
+      <c r="H235" s="29"/>
+      <c r="I235" s="29"/>
+      <c r="J235" s="29"/>
+      <c r="K235" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -12412,9 +12493,9 @@
     <mergeCell ref="A187:K187"/>
     <mergeCell ref="A200:K200"/>
     <mergeCell ref="A205:K205"/>
-    <mergeCell ref="A222:K222"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A223:K223"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A235:K235"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sits/msit_klingon.xlsx
+++ b/sits/msit_klingon.xlsx
@@ -76,7 +76,7 @@
     <t>Special Rules: 36+8</t>
   </si>
   <si>
-    <t>Base Hull (BB). See (436.0).</t>
+    <t>Base Hull (BB). See (436.0).  Single-Ship Carrier.</t>
   </si>
   <si>
     <t>B10(-)</t>
@@ -4775,8 +4775,8 @@
   </sheetPr>
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A200" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H208" activeCellId="0" pane="topLeft" sqref="H208"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L5" activeCellId="0" pane="topLeft" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/sits/msit_klingon.xlsx
+++ b/sits/msit_klingon.xlsx
@@ -1711,7 +1711,7 @@
     <t>See (422.8)</t>
   </si>
   <si>
-    <t>VP(VP2)</t>
+    <t>VP</t>
   </si>
   <si>
     <r>
@@ -4775,8 +4775,8 @@
   </sheetPr>
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L5" activeCellId="0" pane="topLeft" sqref="L5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A77" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A93" activeCellId="0" pane="topLeft" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/sits/msit_klingon.xlsx
+++ b/sits/msit_klingon.xlsx
@@ -474,7 +474,7 @@
     <t>See (440.4).</t>
   </si>
   <si>
-    <t>For D7 or C8: 10</t>
+    <t>For D7/C8: 10</t>
   </si>
   <si>
     <t>Base Hull Type (BCH)</t>
@@ -4775,8 +4775,8 @@
   </sheetPr>
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A77" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A93" activeCellId="0" pane="topLeft" sqref="A93"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I27" activeCellId="0" pane="topLeft" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
